--- a/docs/테스트 문서/동시성 기술 선택 근거 시나리오 테스트(진행 중)/Concurrency_Performance_Scripts/RaceConditionAnalzer_Scripts/results/reports/IF_ELSE/Server/StatisticalBinAnalyzer.xlsx
+++ b/docs/테스트 문서/동시성 기술 선택 근거 시나리오 테스트(진행 중)/Concurrency_Performance_Scripts/RaceConditionAnalzer_Scripts/results/reports/IF_ELSE/Server/StatisticalBinAnalyzer.xlsx
@@ -4136,16 +4136,16 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -4154,10 +4154,10 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.3416</v>
+        <v>1.1972</v>
       </c>
     </row>
     <row r="5">
@@ -4171,28 +4171,28 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>3.88</v>
+        <v>2.87</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.4549</v>
+        <v>0.7432</v>
       </c>
     </row>
     <row r="6">
@@ -4206,28 +4206,28 @@
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>3.44</v>
+        <v>3.14</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.4592</v>
+        <v>1.069</v>
       </c>
     </row>
     <row r="7">
@@ -4241,28 +4241,28 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="G7" t="n">
-        <v>5.26</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
       <c r="K7" t="n">
-        <v>1.6276</v>
+        <v>1.2247</v>
       </c>
     </row>
     <row r="8">
@@ -4276,28 +4276,28 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.5861</v>
+        <v>0.4472</v>
       </c>
     </row>
     <row r="9">
@@ -4311,28 +4311,28 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>4.05</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1.026</v>
+        <v>0.4472</v>
       </c>
     </row>
     <row r="10">
@@ -4346,28 +4346,28 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1.3179</v>
+        <v>0.7559</v>
       </c>
     </row>
     <row r="11">
@@ -4381,28 +4381,28 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>13.2</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4541</v>
+        <v>0.5477</v>
       </c>
     </row>
     <row r="12">
@@ -4416,28 +4416,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>8.699999999999999</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4451,28 +4451,28 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F13" t="n">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>2.73</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1764</v>
+        <v>0.7037</v>
       </c>
     </row>
     <row r="14">
@@ -4486,13 +4486,13 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -4521,13 +4521,13 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
         <v>10</v>
       </c>
-      <c r="E15" t="n">
-        <v>50</v>
-      </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
@@ -4556,28 +4556,28 @@
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v/>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v/>
       </c>
       <c r="K16" t="n">
-        <v>0.5222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4591,28 +4591,28 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>1.1002</v>
+        <v>1.0328</v>
       </c>
     </row>
     <row r="18">
@@ -4626,28 +4626,28 @@
         <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1.1147</v>
+        <v>0.5477</v>
       </c>
     </row>
     <row r="19">
@@ -4661,28 +4661,28 @@
         <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F19" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>2.33</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2455</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -4696,28 +4696,28 @@
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="G20" t="n">
-        <v>5.44</v>
+        <v>2.38</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>1.8542</v>
+        <v>1.0607</v>
       </c>
     </row>
     <row r="21">
@@ -4731,28 +4731,28 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F21" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>2.44</v>
       </c>
       <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>1.7889</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="22">
@@ -4766,28 +4766,28 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>4.06</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>1.7843</v>
+        <v>0.5477</v>
       </c>
     </row>
     <row r="23">
@@ -4801,28 +4801,28 @@
         <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4836,28 +4836,28 @@
         <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>1.2247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4871,28 +4871,28 @@
         <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>4.78</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.0163</v>
+        <v>1.069</v>
       </c>
     </row>
     <row r="26">
@@ -4906,28 +4906,28 @@
         <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>2.33</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>1.1921</v>
+        <v>0.5164</v>
       </c>
     </row>
     <row r="27">
@@ -4941,28 +4941,28 @@
         <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>4.35</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5871</v>
+        <v>0.4472</v>
       </c>
     </row>
     <row r="28">
@@ -4976,28 +4976,28 @@
         <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>4.37</v>
+        <v>2.33</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>1.4985</v>
+        <v>0.8165</v>
       </c>
     </row>
     <row r="29">
@@ -5011,28 +5011,28 @@
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>5.26</v>
+        <v>2.67</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>1.6276</v>
+        <v>0.7785</v>
       </c>
     </row>
     <row r="30">
@@ -5046,28 +5046,28 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>4.26</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>1.3267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5081,28 +5081,28 @@
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
-        <v>6.37</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4956</v>
+        <v>0.3162</v>
       </c>
     </row>
     <row r="32">
@@ -5116,28 +5116,28 @@
         <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>6.78</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
-        <v>12</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5</v>
-      </c>
       <c r="K32" t="n">
-        <v>3.7816</v>
+        <v>0.8367</v>
       </c>
     </row>
     <row r="33">
@@ -5151,28 +5151,28 @@
         <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F33" t="n">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="G33" t="n">
-        <v>5.84</v>
+        <v>3.29</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.1669</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="34">
@@ -5186,28 +5186,28 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>2.73</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>1.009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5221,28 +5221,28 @@
         <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F35" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5256,16 +5256,16 @@
         <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E36" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F36" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G36" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
@@ -5277,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>1.2217</v>
+        <v>1.0954</v>
       </c>
     </row>
     <row r="37">
@@ -5291,28 +5291,28 @@
         <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="F37" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="G37" t="n">
-        <v>4.74</v>
+        <v>2.12</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2814</v>
+        <v>0.3536</v>
       </c>
     </row>
     <row r="38">
@@ -5326,28 +5326,28 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F38" t="n">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="G38" t="n">
-        <v>6.25</v>
+        <v>2.85</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3368</v>
+        <v>0.5547</v>
       </c>
     </row>
     <row r="39">
@@ -5361,28 +5361,28 @@
         <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F39" t="n">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
         <v>4</v>
       </c>
-      <c r="I39" t="n">
-        <v>9</v>
-      </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>1.78</v>
+        <v>0.9258</v>
       </c>
     </row>
     <row r="40">
@@ -5396,28 +5396,28 @@
         <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F40" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="G40" t="n">
-        <v>5.4</v>
+        <v>2.31</v>
       </c>
       <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
         <v>3</v>
       </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>1.6026</v>
+        <v>0.4804</v>
       </c>
     </row>
     <row r="41">
@@ -5431,28 +5431,28 @@
         <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E41" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F41" t="n">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>6.1</v>
+        <v>2.73</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>1.6827</v>
+        <v>1.1909</v>
       </c>
     </row>
     <row r="42">
@@ -5466,28 +5466,28 @@
         <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F42" t="n">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G42" t="n">
-        <v>4.15</v>
+        <v>2.64</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K42" t="n">
-        <v>1.3485</v>
+        <v>0.8419</v>
       </c>
     </row>
     <row r="43">
@@ -5501,28 +5501,28 @@
         <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F43" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G43" t="n">
-        <v>4.95</v>
+        <v>3.22</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>1.7151</v>
+        <v>0.8782</v>
       </c>
     </row>
     <row r="44">
@@ -5536,28 +5536,28 @@
         <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>3.33</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>1.9518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5571,28 +5571,28 @@
         <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>1.6512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5606,28 +5606,28 @@
         <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F46" t="n">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>4.35</v>
+        <v>2.75</v>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>2.1588</v>
+        <v>0.4629</v>
       </c>
     </row>
     <row r="47">
@@ -5641,28 +5641,28 @@
         <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F47" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>2.22</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2124</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="48">
@@ -5676,28 +5676,28 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F48" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="G48" t="n">
-        <v>4.37</v>
+        <v>2.67</v>
       </c>
       <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
         <v>3</v>
       </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5</v>
-      </c>
       <c r="K48" t="n">
-        <v>1.3829</v>
+        <v>0.7071</v>
       </c>
     </row>
     <row r="49">
@@ -5711,28 +5711,28 @@
         <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F49" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="G49" t="n">
-        <v>5.53</v>
+        <v>2.92</v>
       </c>
       <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4</v>
+      </c>
+      <c r="J49" t="n">
         <v>3</v>
       </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>6</v>
-      </c>
       <c r="K49" t="n">
-        <v>1.7438</v>
+        <v>0.9003</v>
       </c>
     </row>
     <row r="50">
@@ -5746,28 +5746,28 @@
         <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F50" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>2.12</v>
       </c>
       <c r="H50" t="n">
         <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>2.3396</v>
+        <v>0.3536</v>
       </c>
     </row>
     <row r="51">
@@ -5781,28 +5781,28 @@
         <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F51" t="n">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="G51" t="n">
-        <v>7.26</v>
+        <v>2.33</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>1.881</v>
+        <v>0.5164</v>
       </c>
     </row>
     <row r="52">
@@ -5816,28 +5816,28 @@
         <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F52" t="n">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="G52" t="n">
-        <v>10.45</v>
+        <v>6.41</v>
       </c>
       <c r="H52" t="n">
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J52" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K52" t="n">
-        <v>4.8393</v>
+        <v>3.5542</v>
       </c>
     </row>
     <row r="53">
@@ -5851,28 +5851,28 @@
         <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E53" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F53" t="n">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="G53" t="n">
-        <v>5.47</v>
+        <v>3.31</v>
       </c>
       <c r="H53" t="n">
         <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>1.7117</v>
+        <v>1.3156</v>
       </c>
     </row>
     <row r="54">
@@ -5886,13 +5886,13 @@
         <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -5921,28 +5921,28 @@
         <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F55" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G55" t="n">
-        <v>3.33</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>1.1376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5956,28 +5956,28 @@
         <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="F56" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="G56" t="n">
-        <v>3.84</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>1.0679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5991,28 +5991,28 @@
         <v>20</v>
       </c>
       <c r="D57" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="F57" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G57" t="n">
-        <v>4.58</v>
+        <v>2.25</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
-        <v>1.1213</v>
+        <v>0.7071</v>
       </c>
     </row>
     <row r="58">
@@ -6026,28 +6026,28 @@
         <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F58" t="n">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G58" t="n">
-        <v>4.95</v>
+        <v>2.88</v>
       </c>
       <c r="H58" t="n">
         <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K58" t="n">
-        <v>2.1637</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="59">
@@ -6061,28 +6061,28 @@
         <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F59" t="n">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>2.33</v>
       </c>
       <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="n">
         <v>3</v>
       </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
       <c r="J59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>2.6754</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
@@ -6096,28 +6096,28 @@
         <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F60" t="n">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="G60" t="n">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>1.6512</v>
+        <v>0.8944</v>
       </c>
     </row>
     <row r="61">
@@ -6131,28 +6131,28 @@
         <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F61" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="G61" t="n">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>2.2827</v>
+        <v>0.9487</v>
       </c>
     </row>
     <row r="62">
@@ -6166,28 +6166,28 @@
         <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E62" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F62" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="G62" t="n">
-        <v>4.7</v>
+        <v>2.43</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>1.9222</v>
+        <v>0.7868000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6201,28 +6201,28 @@
         <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F63" t="n">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="G63" t="n">
-        <v>6.17</v>
+        <v>2.75</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>2.9356</v>
+        <v>1.0351</v>
       </c>
     </row>
     <row r="64">
@@ -6236,28 +6236,28 @@
         <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>3.54</v>
+        <v/>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="K64" t="n">
-        <v>2.0255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -6271,28 +6271,28 @@
         <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F65" t="n">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="G65" t="n">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>1.118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6306,28 +6306,28 @@
         <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F66" t="n">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G66" t="n">
-        <v>5.45</v>
+        <v>3.27</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
-        <v>1.572</v>
+        <v>0.8837</v>
       </c>
     </row>
     <row r="67">
@@ -6341,28 +6341,28 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F67" t="n">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
-        <v>4.85</v>
+        <v>2.83</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>1.927</v>
+        <v>0.7528</v>
       </c>
     </row>
     <row r="68">
@@ -6376,28 +6376,28 @@
         <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E68" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F68" t="n">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="G68" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="n">
         <v>7</v>
       </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12</v>
-      </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
-        <v>3.5836</v>
+        <v>1.4473</v>
       </c>
     </row>
     <row r="69">
@@ -6411,28 +6411,28 @@
         <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
-        <v>4.79</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>2.275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6446,28 +6446,28 @@
         <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G70" t="n">
-        <v>5.26</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
         <v>3</v>
       </c>
-      <c r="I70" t="n">
-        <v>6</v>
-      </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>1.0976</v>
+        <v>0.4472</v>
       </c>
     </row>
     <row r="71">
@@ -6481,28 +6481,28 @@
         <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E71" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="G71" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
         <v>5</v>
       </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>1.7472</v>
+        <v>0.7998</v>
       </c>
     </row>
     <row r="72">
@@ -6516,28 +6516,28 @@
         <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F72" t="n">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="G72" t="n">
-        <v>7.63</v>
+        <v>2.44</v>
       </c>
       <c r="H72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>1.461</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="73">
@@ -6551,28 +6551,28 @@
         <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F73" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="G73" t="n">
-        <v>4.8</v>
+        <v>2.33</v>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>1.3611</v>
+        <v>0.8165</v>
       </c>
     </row>
     <row r="74">
@@ -6586,28 +6586,28 @@
         <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
         <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6621,28 +6621,28 @@
         <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="F75" t="n">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="G75" t="n">
-        <v>4.68</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>1.9735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6656,28 +6656,28 @@
         <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F76" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="G76" t="n">
-        <v>4.05</v>
+        <v>2.43</v>
       </c>
       <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="n">
         <v>3</v>
       </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
-        <v>0.887</v>
+        <v>0.5345</v>
       </c>
     </row>
     <row r="77">
@@ -6691,28 +6691,28 @@
         <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F77" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G77" t="n">
-        <v>4.45</v>
+        <v>2.67</v>
       </c>
       <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
         <v>3</v>
       </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>1.099</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78">
@@ -6726,28 +6726,28 @@
         <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F78" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G78" t="n">
-        <v>5.05</v>
+        <v>2.25</v>
       </c>
       <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="n">
         <v>3</v>
       </c>
-      <c r="I78" t="n">
-        <v>8</v>
-      </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
-        <v>1.191</v>
+        <v>0.4523</v>
       </c>
     </row>
     <row r="79">
@@ -6761,28 +6761,28 @@
         <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="G79" t="n">
-        <v>5.89</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>2.2084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6796,28 +6796,28 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F80" t="n">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="G80" t="n">
-        <v>6.47</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>1.5765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -6831,28 +6831,28 @@
         <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E81" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F81" t="n">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="G81" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
         <v>3</v>
       </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
       <c r="J81" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K81" t="n">
-        <v>1.5009</v>
+        <v>0.5477</v>
       </c>
     </row>
     <row r="82">
@@ -6866,28 +6866,28 @@
         <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F82" t="n">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="G82" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
-        <v>1.7442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -6901,28 +6901,28 @@
         <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E83" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F83" t="n">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="G83" t="n">
-        <v>5.32</v>
+        <v>2.27</v>
       </c>
       <c r="H83" t="n">
         <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>2.5615</v>
+        <v>0.4671</v>
       </c>
     </row>
     <row r="84">
@@ -6936,13 +6936,13 @@
         <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -6971,28 +6971,28 @@
         <v>20</v>
       </c>
       <c r="D85" t="n">
+        <v>7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>35</v>
+      </c>
+      <c r="F85" t="n">
         <v>19</v>
       </c>
-      <c r="E85" t="n">
-        <v>95</v>
-      </c>
-      <c r="F85" t="n">
-        <v>67</v>
-      </c>
       <c r="G85" t="n">
-        <v>3.53</v>
+        <v>2.71</v>
       </c>
       <c r="H85" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
         <v>3</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
       </c>
       <c r="J85" t="n">
         <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>0.7723</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="86">
@@ -7006,28 +7006,28 @@
         <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F86" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="G86" t="n">
-        <v>3.44</v>
+        <v>2.17</v>
       </c>
       <c r="H86" t="n">
         <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
-        <v>1.3382</v>
+        <v>0.4082</v>
       </c>
     </row>
     <row r="87">
@@ -7041,28 +7041,28 @@
         <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F87" t="n">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>4.05</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>1.471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7076,28 +7076,28 @@
         <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F88" t="n">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="G88" t="n">
-        <v>4.55</v>
+        <v>3.38</v>
       </c>
       <c r="H88" t="n">
         <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
-        <v>1.3563</v>
+        <v>0.9608</v>
       </c>
     </row>
     <row r="89">
@@ -7111,28 +7111,28 @@
         <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F89" t="n">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="G89" t="n">
-        <v>7.25</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>2.0743</v>
+        <v>0.5477</v>
       </c>
     </row>
     <row r="90">
@@ -7146,28 +7146,28 @@
         <v>20</v>
       </c>
       <c r="D90" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F90" t="n">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="G90" t="n">
-        <v>6.65</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
         <v>4</v>
       </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
       <c r="J90" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>1.5652</v>
+        <v>0.7596000000000001</v>
       </c>
     </row>
     <row r="91">
@@ -7181,28 +7181,28 @@
         <v>20</v>
       </c>
       <c r="D91" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E91" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F91" t="n">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="G91" t="n">
-        <v>6.6</v>
+        <v>2.38</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J91" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>2.9451</v>
+        <v>0.9608</v>
       </c>
     </row>
     <row r="92">
@@ -7216,28 +7216,28 @@
         <v>20</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F92" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="G92" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>2.0926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7251,28 +7251,28 @@
         <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F93" t="n">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>4.55</v>
+        <v>2.5</v>
       </c>
       <c r="H93" t="n">
         <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K93" t="n">
-        <v>1.191</v>
+        <v>0.5345</v>
       </c>
     </row>
     <row r="94">
@@ -7286,28 +7286,28 @@
         <v>20</v>
       </c>
       <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
         <v>10</v>
       </c>
-      <c r="E94" t="n">
-        <v>50</v>
-      </c>
       <c r="F94" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
         <v>2</v>
       </c>
       <c r="K94" t="n">
-        <v>1.0328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -7321,28 +7321,28 @@
         <v>20</v>
       </c>
       <c r="D95" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>6.78</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>4.821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -7356,28 +7356,28 @@
         <v>20</v>
       </c>
       <c r="D96" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F96" t="n">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>4.53</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
         <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>4.2883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -7391,28 +7391,28 @@
         <v>20</v>
       </c>
       <c r="D97" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F97" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="G97" t="n">
-        <v>3.32</v>
+        <v>2.25</v>
       </c>
       <c r="H97" t="n">
         <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
-        <v>0.8201000000000001</v>
+        <v>0.4523</v>
       </c>
     </row>
     <row r="98">
@@ -7426,28 +7426,28 @@
         <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E98" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F98" t="n">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="G98" t="n">
-        <v>7.8</v>
+        <v>3.68</v>
       </c>
       <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" t="n">
         <v>3</v>
       </c>
-      <c r="I98" t="n">
-        <v>11</v>
-      </c>
-      <c r="J98" t="n">
-        <v>7</v>
-      </c>
       <c r="K98" t="n">
-        <v>2.285</v>
+        <v>1.4927</v>
       </c>
     </row>
     <row r="99">
@@ -7461,28 +7461,28 @@
         <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E99" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G99" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
         <v>5</v>
       </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
       <c r="J99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>1.8064</v>
+        <v>0.9473</v>
       </c>
     </row>
     <row r="100">
@@ -7496,28 +7496,28 @@
         <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F100" t="n">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="G100" t="n">
-        <v>7.6</v>
+        <v>3.92</v>
       </c>
       <c r="H100" t="n">
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K100" t="n">
-        <v>4.1852</v>
+        <v>2.1001</v>
       </c>
     </row>
     <row r="101">
@@ -7531,28 +7531,28 @@
         <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E101" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F101" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K101" t="n">
-        <v>3.9135</v>
+        <v>0.6742</v>
       </c>
     </row>
     <row r="102">
@@ -7566,28 +7566,28 @@
         <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F102" t="n">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="G102" t="n">
-        <v>7.2</v>
+        <v>2.88</v>
       </c>
       <c r="H102" t="n">
         <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>3.2053</v>
+        <v>0.8062</v>
       </c>
     </row>
     <row r="103">
@@ -7601,28 +7601,28 @@
         <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E103" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="G103" t="n">
-        <v>10</v>
+        <v>3.18</v>
       </c>
       <c r="H103" t="n">
         <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J103" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
-        <v>3.685</v>
+        <v>1.0744</v>
       </c>
     </row>
   </sheetData>
@@ -10007,25 +10007,25 @@
         <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -10042,25 +10042,25 @@
         <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -10077,25 +10077,25 @@
         <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -10147,25 +10147,25 @@
         <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -11468,16 +11468,16 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
         <v>5</v>
       </c>
-      <c r="E8" t="n">
-        <v>25</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H8" t="n">
         <v>-2</v>
@@ -11486,10 +11486,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.3416</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -11503,28 +11503,28 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H9" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I9" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J9" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K9" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -11538,28 +11538,28 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H10" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I10" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J10" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K10" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -11573,28 +11573,28 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H11" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I11" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J11" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K11" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -11608,28 +11608,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H12" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I12" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J12" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K12" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -11643,28 +11643,28 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H13" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I13" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J13" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K13" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -11818,13 +11818,13 @@
         <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -11836,10 +11836,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.1547</v>
+        <v>1.4142</v>
       </c>
     </row>
     <row r="19">
@@ -11853,28 +11853,28 @@
         <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H19" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I19" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J19" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K19" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -11888,28 +11888,28 @@
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H20" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I20" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J20" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K20" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -11923,28 +11923,28 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H21" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I21" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J21" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K21" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -11958,28 +11958,28 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H22" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I22" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J22" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K22" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -11993,28 +11993,28 @@
         <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H23" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I23" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J23" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K23" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -12168,16 +12168,16 @@
         <v>20</v>
       </c>
       <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
         <v>4</v>
       </c>
-      <c r="E28" t="n">
-        <v>20</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
       <c r="G28" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="H28" t="n">
         <v>-1</v>
@@ -12189,7 +12189,7 @@
         <v>-1</v>
       </c>
       <c r="K28" t="n">
-        <v>1.5</v>
+        <v>1.7321</v>
       </c>
     </row>
     <row r="29">
@@ -12203,28 +12203,28 @@
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H29" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I29" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J29" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K29" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -12238,28 +12238,28 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H30" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I30" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J30" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K30" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -12273,28 +12273,28 @@
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H31" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I31" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J31" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K31" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -12308,28 +12308,28 @@
         <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H32" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I32" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J32" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K32" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -12343,28 +12343,28 @@
         <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H33" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I33" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J33" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K33" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -12518,16 +12518,16 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="H38" t="n">
         <v>-2</v>
@@ -12539,7 +12539,7 @@
         <v>-1</v>
       </c>
       <c r="K38" t="n">
-        <v>1.8529</v>
+        <v>1.9365</v>
       </c>
     </row>
     <row r="39">
@@ -12553,28 +12553,28 @@
         <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H39" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I39" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J39" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K39" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -12588,28 +12588,28 @@
         <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H40" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I40" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J40" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K40" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -12623,28 +12623,28 @@
         <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H41" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I41" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J41" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K41" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -12658,28 +12658,28 @@
         <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H42" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I42" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J42" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K42" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -12693,28 +12693,28 @@
         <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H43" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I43" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J43" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K43" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -12868,16 +12868,16 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H48" t="n">
         <v>-2</v>
@@ -12886,10 +12886,10 @@
         <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1.3642</v>
+        <v>1.4142</v>
       </c>
     </row>
     <row r="49">
@@ -12903,28 +12903,28 @@
         <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H49" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I49" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J49" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K49" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -12938,28 +12938,28 @@
         <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H50" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I50" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J50" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K50" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -12973,28 +12973,28 @@
         <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H51" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I51" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J51" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K51" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -13008,28 +13008,28 @@
         <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H52" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I52" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J52" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K52" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -13043,28 +13043,28 @@
         <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H53" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I53" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J53" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K53" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -13218,13 +13218,13 @@
         <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -13236,10 +13236,10 @@
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1.1547</v>
+        <v>1.4142</v>
       </c>
     </row>
     <row r="59">
@@ -13253,28 +13253,28 @@
         <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H59" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I59" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J59" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K59" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -13288,28 +13288,28 @@
         <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H60" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I60" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J60" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K60" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -13323,28 +13323,28 @@
         <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H61" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I61" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J61" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K61" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -13358,28 +13358,28 @@
         <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H62" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I62" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J62" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K62" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -13393,28 +13393,28 @@
         <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H63" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I63" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J63" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K63" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -13603,28 +13603,28 @@
         <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>10.5</v>
+        <v/>
       </c>
       <c r="H69" t="n">
-        <v>-20</v>
+        <v/>
       </c>
       <c r="I69" t="n">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="J69" t="n">
-        <v>-10.5</v>
+        <v/>
       </c>
       <c r="K69" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -13638,28 +13638,28 @@
         <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>30.5</v>
+        <v/>
       </c>
       <c r="H70" t="n">
-        <v>-40</v>
+        <v/>
       </c>
       <c r="I70" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="J70" t="n">
-        <v>-30.5</v>
+        <v/>
       </c>
       <c r="K70" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -13673,28 +13673,28 @@
         <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>50.5</v>
+        <v/>
       </c>
       <c r="H71" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="I71" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="J71" t="n">
-        <v>-50.5</v>
+        <v/>
       </c>
       <c r="K71" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -13708,28 +13708,28 @@
         <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1410</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>70.5</v>
+        <v/>
       </c>
       <c r="H72" t="n">
-        <v>-80</v>
+        <v/>
       </c>
       <c r="I72" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="J72" t="n">
-        <v>-70.5</v>
+        <v/>
       </c>
       <c r="K72" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -13743,28 +13743,28 @@
         <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>90.5</v>
+        <v/>
       </c>
       <c r="H73" t="n">
-        <v>-100</v>
+        <v/>
       </c>
       <c r="I73" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="J73" t="n">
-        <v>-90.5</v>
+        <v/>
       </c>
       <c r="K73" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -13918,13 +13918,13 @@
         <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -13936,10 +13936,10 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1.0541</v>
+        <v>1.069</v>
       </c>
     </row>
     <row r="79">
@@ -13953,28 +13953,28 @@
         <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H79" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I79" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J79" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K79" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -13988,28 +13988,28 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H80" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I80" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J80" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K80" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -14023,28 +14023,28 @@
         <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H81" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I81" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J81" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K81" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -14058,28 +14058,28 @@
         <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H82" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I82" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J82" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K82" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -14093,28 +14093,28 @@
         <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H83" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I83" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J83" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K83" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -14268,16 +14268,16 @@
         <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G88" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>-3</v>
@@ -14286,10 +14286,10 @@
         <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>1.7215</v>
+        <v>1.792</v>
       </c>
     </row>
     <row r="89">
@@ -14303,28 +14303,28 @@
         <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H89" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I89" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J89" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K89" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -14338,28 +14338,28 @@
         <v>20</v>
       </c>
       <c r="D90" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H90" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I90" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J90" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K90" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -14373,28 +14373,28 @@
         <v>20</v>
       </c>
       <c r="D91" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H91" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I91" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J91" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K91" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -14408,28 +14408,28 @@
         <v>20</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H92" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I92" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J92" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K92" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -14443,28 +14443,28 @@
         <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H93" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I93" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J93" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K93" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -14618,16 +14618,16 @@
         <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G98" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H98" t="n">
         <v>-1</v>
@@ -14639,7 +14639,7 @@
         <v>-1</v>
       </c>
       <c r="K98" t="n">
-        <v>1.4639</v>
+        <v>1.5492</v>
       </c>
     </row>
     <row r="99">
@@ -14653,28 +14653,28 @@
         <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>11.5</v>
+        <v/>
       </c>
       <c r="H99" t="n">
-        <v>-21</v>
+        <v/>
       </c>
       <c r="I99" t="n">
-        <v>-2</v>
+        <v/>
       </c>
       <c r="J99" t="n">
-        <v>-11.5</v>
+        <v/>
       </c>
       <c r="K99" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -14688,28 +14688,28 @@
         <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>31.5</v>
+        <v/>
       </c>
       <c r="H100" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="I100" t="n">
-        <v>-22</v>
+        <v/>
       </c>
       <c r="J100" t="n">
-        <v>-31.5</v>
+        <v/>
       </c>
       <c r="K100" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -14723,28 +14723,28 @@
         <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>51.5</v>
+        <v/>
       </c>
       <c r="H101" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="I101" t="n">
-        <v>-42</v>
+        <v/>
       </c>
       <c r="J101" t="n">
-        <v>-51.5</v>
+        <v/>
       </c>
       <c r="K101" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -14758,28 +14758,28 @@
         <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>71.5</v>
+        <v/>
       </c>
       <c r="H102" t="n">
-        <v>-81</v>
+        <v/>
       </c>
       <c r="I102" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="J102" t="n">
-        <v>-71.5</v>
+        <v/>
       </c>
       <c r="K102" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -14793,28 +14793,28 @@
         <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>91.5</v>
+        <v/>
       </c>
       <c r="H103" t="n">
-        <v>-101</v>
+        <v/>
       </c>
       <c r="I103" t="n">
-        <v>-82</v>
+        <v/>
       </c>
       <c r="J103" t="n">
-        <v>-91.5</v>
+        <v/>
       </c>
       <c r="K103" t="n">
-        <v>5.9161</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
